--- a/logsearch/data/error_logs/UC2.5_UC2.5_拠点A_01.xlsx
+++ b/logsearch/data/error_logs/UC2.5_UC2.5_拠点A_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Desktop\work\logseach\ntt-backend\logsearch\data\error_logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\demo-react\ntt-demo\ntt-backend\logsearch\data\error_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7EB7FE-3A06-4D69-A3CF-B3542C71E17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25CC0F21-6F00-4555-9596-96F72A1E5A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,16 +140,13 @@
     <t>パスワードが正しくありません</t>
   </si>
   <si>
-    <t>UC2.5/UC2.5_拠点A/bdot20240415_155147/0415_155150_0.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UC2.5/UC2.5_拠点A/bdot20240415_155147/0415_155156_0.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UC2.5/UC2.5_拠点A/bdot20240415_155147/0415_155200_0.png</t>
-    <phoneticPr fontId="2"/>
+    <t>bdot20240415_155147/0415_155156_0.png</t>
+  </si>
+  <si>
+    <t>bdot20240415_155147/0415_155150_0.png</t>
+  </si>
+  <si>
+    <t>bdot20240415_155147/0415_155200_0.png</t>
   </si>
 </sst>
 </file>
@@ -157,13 +154,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -176,7 +173,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -222,10 +219,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -528,27 +525,27 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="57.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="52.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.8984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="50.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="2">
         <v>45397.660960648151</v>
       </c>
@@ -615,7 +612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>45397.660960648151</v>
       </c>
@@ -641,7 +638,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>45397.660960648151</v>
       </c>
@@ -670,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>45397.660995370366</v>
       </c>
@@ -696,10 +693,10 @@
         <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>45397.661030092589</v>
       </c>
@@ -713,7 +710,7 @@
         <v>197686</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>45397.661064814813</v>
       </c>
@@ -742,13 +739,13 @@
         <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="2">
         <v>45397.661111111112</v>
       </c>
@@ -783,7 +780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="2">
         <v>45397.661157407398</v>
       </c>
@@ -818,7 +815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="2">
         <v>45397.661157407398</v>
       </c>
@@ -853,7 +850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="2">
         <v>45397.661157407398</v>
       </c>
